--- a/dataExcel/【M4A4 _ 死寂空间 (战痕累累)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【M4A4 _ 死寂空间 (战痕累累)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 15:08:00</v>
+        <v>2023-09-19 13:27:31</v>
       </c>
       <c r="B8">
-        <v>22.7</v>
+        <v>26.66</v>
       </c>
       <c r="C8">
-        <v>27.5</v>
+        <v>29.9</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0.03</v>
@@ -449,27 +449,27 @@
         <v>0.02</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>19.39</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 18:37:53</v>
+        <v>2023-09-19 18:38:30</v>
       </c>
       <c r="B9">
-        <v>22.9</v>
+        <v>25.4</v>
       </c>
       <c r="C9">
-        <v>27.5</v>
+        <v>29.9</v>
       </c>
       <c r="D9">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>0.03</v>
@@ -478,27 +478,27 @@
         <v>0.02</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 22:30:05</v>
+        <v>2023-09-19 23:50:36</v>
       </c>
       <c r="B10">
-        <v>22.5</v>
+        <v>26.5</v>
       </c>
       <c r="C10">
-        <v>27.5</v>
+        <v>29.9</v>
       </c>
       <c r="D10">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>0.03</v>
@@ -507,27 +507,27 @@
         <v>0.02</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>19.5</v>
+        <v>21.4</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 02:21:10</v>
+        <v>2023-09-20 04:59:44</v>
       </c>
       <c r="B11">
-        <v>22.6</v>
+        <v>26.5</v>
       </c>
       <c r="C11">
-        <v>30.16</v>
+        <v>29.71</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>0.03</v>
@@ -536,27 +536,27 @@
         <v>0.02</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 06:06:23</v>
+        <v>2023-09-20 10:09:07</v>
       </c>
       <c r="B12">
-        <v>22.6</v>
+        <v>26.5</v>
       </c>
       <c r="C12">
-        <v>30.16</v>
+        <v>29.71</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <v>0.03</v>
@@ -565,24 +565,24 @@
         <v>0.02</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>21.6</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 09:54:04</v>
+        <v>2023-09-20 15:19:28</v>
       </c>
       <c r="B13">
-        <v>22.6</v>
+        <v>23.88</v>
       </c>
       <c r="C13">
-        <v>30.16</v>
+        <v>29.71</v>
       </c>
       <c r="D13">
         <v>61</v>
@@ -594,27 +594,27 @@
         <v>0.02</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H13">
-        <v>20.1</v>
+        <v>21.8</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 13:34:18</v>
+        <v>2023-09-20 20:27:50</v>
       </c>
       <c r="B14">
-        <v>22.9</v>
+        <v>25.98</v>
       </c>
       <c r="C14">
-        <v>30.16</v>
+        <v>29.71</v>
       </c>
       <c r="D14">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>0.03</v>
@@ -623,27 +623,27 @@
         <v>0.02</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>20.2</v>
+        <v>21.8</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 17:14:08</v>
+        <v>2023-09-21 01:41:43</v>
       </c>
       <c r="B15">
-        <v>23.5</v>
+        <v>24.98</v>
       </c>
       <c r="C15">
-        <v>30.16</v>
+        <v>29.71</v>
       </c>
       <c r="D15">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>0.03</v>
@@ -652,27 +652,27 @@
         <v>0.02</v>
       </c>
       <c r="G15">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>21.9</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 20:47:44</v>
+        <v>2023-09-21 06:50:40</v>
       </c>
       <c r="B16">
-        <v>23.5</v>
+        <v>25.88</v>
       </c>
       <c r="C16">
-        <v>30.16</v>
+        <v>28.14</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>0.03</v>
@@ -681,27 +681,27 @@
         <v>0.02</v>
       </c>
       <c r="G16">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>20.6</v>
+        <v>22</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 00:28:16</v>
+        <v>2023-09-21 12:00:52</v>
       </c>
       <c r="B17">
-        <v>23.5</v>
+        <v>25.99</v>
       </c>
       <c r="C17">
-        <v>30.16</v>
+        <v>28.14</v>
       </c>
       <c r="D17">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>0.03</v>
@@ -710,27 +710,27 @@
         <v>0.02</v>
       </c>
       <c r="G17">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H17">
-        <v>20.7</v>
+        <v>22</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 04:08:22</v>
+        <v>2023-09-21 17:09:23</v>
       </c>
       <c r="B18">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>28.41</v>
+        <v>28.14</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>0.03</v>
@@ -739,27 +739,27 @@
         <v>0.02</v>
       </c>
       <c r="G18">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18">
-        <v>20.8</v>
+        <v>22</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 07:42:16</v>
+        <v>2023-09-21 22:18:58</v>
       </c>
       <c r="B19">
-        <v>23.4</v>
+        <v>24.8</v>
       </c>
       <c r="C19">
-        <v>28.41</v>
+        <v>28.14</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>0.03</v>
@@ -768,24 +768,24 @@
         <v>0.02</v>
       </c>
       <c r="G19">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H19">
-        <v>20.8</v>
+        <v>22.1</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 07:53:05</v>
+        <v>2023-09-22 03:30:48</v>
       </c>
       <c r="B20">
-        <v>23.4</v>
+        <v>24.7</v>
       </c>
       <c r="C20">
-        <v>28.41</v>
+        <v>31.66</v>
       </c>
       <c r="D20">
         <v>57</v>
@@ -797,24 +797,24 @@
         <v>0.02</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H20">
-        <v>20.8</v>
+        <v>22.2</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 11:37:09</v>
+        <v>2023-09-22 08:40:01</v>
       </c>
       <c r="B21">
-        <v>23.4</v>
+        <v>24.7</v>
       </c>
       <c r="C21">
-        <v>28.41</v>
+        <v>31.66</v>
       </c>
       <c r="D21">
         <v>57</v>
@@ -826,27 +826,27 @@
         <v>0.02</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 16:47:40</v>
+        <v>2023-09-22 13:49:55</v>
       </c>
       <c r="B22">
-        <v>23.4</v>
+        <v>24.8</v>
       </c>
       <c r="C22">
-        <v>28.41</v>
+        <v>31.66</v>
       </c>
       <c r="D22">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>0.03</v>
@@ -855,27 +855,27 @@
         <v>0.02</v>
       </c>
       <c r="G22">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H22">
-        <v>20.9</v>
+        <v>22.2</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 22:00:17</v>
+        <v>2023-09-22 18:59:49</v>
       </c>
       <c r="B23">
-        <v>25.6</v>
+        <v>24.54</v>
       </c>
       <c r="C23">
-        <v>28.41</v>
+        <v>31.66</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0.03</v>
@@ -884,27 +884,27 @@
         <v>0.02</v>
       </c>
       <c r="G23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 03:10:05</v>
+        <v>2023-09-23 00:09:27</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>24.54</v>
       </c>
       <c r="C24">
-        <v>29.9</v>
+        <v>31.66</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>0.03</v>
@@ -913,24 +913,24 @@
         <v>0.02</v>
       </c>
       <c r="G24">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="I24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 08:17:44</v>
+        <v>2023-09-23 05:19:12</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>24.54</v>
       </c>
       <c r="C25">
-        <v>29.9</v>
+        <v>29.25</v>
       </c>
       <c r="D25">
         <v>56</v>
@@ -942,27 +942,27 @@
         <v>0.02</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-19 13:27:31</v>
+        <v>2023-09-23 10:30:12</v>
       </c>
       <c r="B26">
-        <v>26.66</v>
+        <v>24.54</v>
       </c>
       <c r="C26">
-        <v>29.9</v>
+        <v>29.25</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>0.03</v>
@@ -971,27 +971,27 @@
         <v>0.02</v>
       </c>
       <c r="G26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="I26">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 18:38:30</v>
+        <v>2023-09-23 15:42:16</v>
       </c>
       <c r="B27">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="C27">
-        <v>29.9</v>
+        <v>29.25</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0.03</v>
@@ -1003,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="H27">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="I27">
         <v>10</v>
@@ -1011,132 +1011,132 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 23:50:36</v>
+        <v>2023-09-23 20:50:46</v>
       </c>
       <c r="B28">
-        <v>26.5</v>
+        <v>24.8</v>
       </c>
       <c r="C28">
-        <v>29.9</v>
+        <v>29.25</v>
       </c>
       <c r="D28">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F28">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="I28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-20 04:59:44</v>
+        <v>2023-09-24 02:00:06</v>
       </c>
       <c r="B29">
-        <v>26.5</v>
+        <v>24.8</v>
       </c>
       <c r="C29">
-        <v>29.71</v>
+        <v>29.25</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E29">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F29">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29">
-        <v>21.5</v>
+        <v>22.2</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-20 10:09:07</v>
+        <v>2023-09-24 07:10:07</v>
       </c>
       <c r="B30">
-        <v>26.5</v>
+        <v>24.8</v>
       </c>
       <c r="C30">
-        <v>29.71</v>
+        <v>30.03</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30">
-        <v>21.6</v>
+        <v>22.2</v>
       </c>
       <c r="I30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-20 15:19:28</v>
+        <v>2023-09-24 12:23:38</v>
       </c>
       <c r="B31">
-        <v>23.88</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>29.71</v>
+        <v>30.03</v>
       </c>
       <c r="D31">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G31">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="I31">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 20:27:50</v>
+        <v>2023-09-24 17:31:02</v>
       </c>
       <c r="B32">
-        <v>25.98</v>
+        <v>24</v>
       </c>
       <c r="C32">
-        <v>29.71</v>
+        <v>30.03</v>
       </c>
       <c r="D32">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E32">
         <v>0.03</v>
@@ -1145,10 +1145,10 @@
         <v>0.02</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H32">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-21 01:41:43</v>
+        <v>2023-09-24 22:42:08</v>
       </c>
       <c r="B33">
-        <v>24.98</v>
+        <v>24</v>
       </c>
       <c r="C33">
-        <v>29.71</v>
+        <v>30.03</v>
       </c>
       <c r="D33">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>0.03</v>
@@ -1174,27 +1174,27 @@
         <v>0.02</v>
       </c>
       <c r="G33">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H33">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-21 06:50:40</v>
+        <v>2023-09-25 03:49:40</v>
       </c>
       <c r="B34">
-        <v>25.88</v>
+        <v>24</v>
       </c>
       <c r="C34">
-        <v>28.14</v>
+        <v>29.51</v>
       </c>
       <c r="D34">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>0.03</v>
@@ -1203,27 +1203,27 @@
         <v>0.02</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="I34">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-21 12:00:52</v>
+        <v>2023-09-25 09:01:38</v>
       </c>
       <c r="B35">
-        <v>25.99</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>28.14</v>
+        <v>29.51</v>
       </c>
       <c r="D35">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>0.03</v>
@@ -1232,27 +1232,27 @@
         <v>0.02</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H35">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="I35">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-21 17:09:23</v>
+        <v>2023-09-25 14:12:38</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>28.14</v>
+        <v>29.51</v>
       </c>
       <c r="D36">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>0.03</v>
@@ -1261,27 +1261,27 @@
         <v>0.02</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H36">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="I36">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-21 22:18:58</v>
+        <v>2023-09-25 19:22:52</v>
       </c>
       <c r="B37">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C37">
-        <v>28.14</v>
+        <v>29.51</v>
       </c>
       <c r="D37">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E37">
         <v>0.03</v>
@@ -1290,24 +1290,24 @@
         <v>0.02</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H37">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="I37">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-22 03:30:48</v>
+        <v>2023-09-26 00:32:09</v>
       </c>
       <c r="B38">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="C38">
-        <v>31.66</v>
+        <v>29.51</v>
       </c>
       <c r="D38">
         <v>57</v>
@@ -1319,27 +1319,27 @@
         <v>0.02</v>
       </c>
       <c r="G38">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H38">
         <v>22.2</v>
       </c>
       <c r="I38">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-22 08:40:01</v>
+        <v>2023-09-26 05:43:23</v>
       </c>
       <c r="B39">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="C39">
-        <v>31.66</v>
+        <v>30.09</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39">
         <v>0.03</v>
@@ -1348,27 +1348,27 @@
         <v>0.02</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H39">
         <v>22.2</v>
       </c>
       <c r="I39">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-22 13:49:55</v>
+        <v>2023-09-26 10:51:44</v>
       </c>
       <c r="B40">
         <v>24.8</v>
       </c>
       <c r="C40">
-        <v>31.66</v>
+        <v>30.09</v>
       </c>
       <c r="D40">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40">
         <v>0.03</v>
@@ -1377,24 +1377,24 @@
         <v>0.02</v>
       </c>
       <c r="G40">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H40">
         <v>22.2</v>
       </c>
       <c r="I40">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-22 18:59:49</v>
+        <v>2023-09-26 16:02:04</v>
       </c>
       <c r="B41">
-        <v>24.54</v>
+        <v>24.8</v>
       </c>
       <c r="C41">
-        <v>31.66</v>
+        <v>30.09</v>
       </c>
       <c r="D41">
         <v>57</v>
@@ -1406,27 +1406,27 @@
         <v>0.02</v>
       </c>
       <c r="G41">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H41">
         <v>22.2</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 00:09:27</v>
+        <v>2023-09-26 21:11:40</v>
       </c>
       <c r="B42">
-        <v>24.54</v>
+        <v>24.8</v>
       </c>
       <c r="C42">
-        <v>31.66</v>
+        <v>30.09</v>
       </c>
       <c r="D42">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E42">
         <v>0.03</v>
@@ -1435,27 +1435,27 @@
         <v>0.02</v>
       </c>
       <c r="G42">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42">
         <v>22.2</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-23 05:19:12</v>
+        <v>2023-09-27 02:22:27</v>
       </c>
       <c r="B43">
-        <v>24.54</v>
+        <v>24</v>
       </c>
       <c r="C43">
-        <v>29.25</v>
+        <v>29.64</v>
       </c>
       <c r="D43">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E43">
         <v>0.03</v>
@@ -1464,27 +1464,27 @@
         <v>0.02</v>
       </c>
       <c r="G43">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I43">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-23 10:30:12</v>
+        <v>2023-09-27 07:32:10</v>
       </c>
       <c r="B44">
-        <v>24.54</v>
+        <v>24</v>
       </c>
       <c r="C44">
-        <v>29.25</v>
+        <v>29.64</v>
       </c>
       <c r="D44">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E44">
         <v>0.03</v>
@@ -1493,230 +1493,230 @@
         <v>0.02</v>
       </c>
       <c r="G44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-23 15:42:16</v>
+        <v>2023-09-27 11:37:53</v>
       </c>
       <c r="B45">
-        <v>24.8</v>
+        <v>24</v>
       </c>
       <c r="C45">
-        <v>29.25</v>
+        <v>29.64</v>
       </c>
       <c r="D45">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F45">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-23 20:50:46</v>
+        <v>2023-09-27 15:17:29</v>
       </c>
       <c r="B46">
-        <v>24.8</v>
+        <v>23.4</v>
       </c>
       <c r="C46">
-        <v>29.25</v>
+        <v>29.64</v>
       </c>
       <c r="D46">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E46">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F46">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G46">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H46">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-24 02:00:06</v>
+        <v>2023-09-27 18:54:38</v>
       </c>
       <c r="B47">
-        <v>24.8</v>
+        <v>23.4</v>
       </c>
       <c r="C47">
-        <v>29.25</v>
+        <v>29.64</v>
       </c>
       <c r="D47">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E47">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F47">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G47">
         <v>20</v>
       </c>
       <c r="H47">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-24 07:10:07</v>
+        <v>2023-09-27 22:30:09</v>
       </c>
       <c r="B48">
-        <v>24.8</v>
+        <v>23.4</v>
       </c>
       <c r="C48">
-        <v>30.03</v>
+        <v>29.64</v>
       </c>
       <c r="D48">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F48">
         <v>0.01</v>
       </c>
       <c r="G48">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-24 12:23:38</v>
+        <v>2023-09-28 02:09:33</v>
       </c>
       <c r="B49">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="C49">
-        <v>30.03</v>
+        <v>29.51</v>
       </c>
       <c r="D49">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F49">
         <v>0.01</v>
       </c>
       <c r="G49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-24 17:31:02</v>
+        <v>2023-09-28 05:47:53</v>
       </c>
       <c r="B50">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="C50">
-        <v>30.03</v>
+        <v>29.51</v>
       </c>
       <c r="D50">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E50">
         <v>0.03</v>
       </c>
       <c r="F50">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G50">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H50">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I50">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-24 22:42:08</v>
+        <v>2023-09-28 09:29:05</v>
       </c>
       <c r="B51">
         <v>24</v>
       </c>
       <c r="C51">
-        <v>30.03</v>
+        <v>29.51</v>
       </c>
       <c r="D51">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E51">
         <v>0.03</v>
       </c>
       <c r="F51">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G51">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H51">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I51">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-25 03:49:40</v>
+        <v>2023-09-28 13:09:01</v>
       </c>
       <c r="B52">
-        <v>24</v>
+        <v>24.8</v>
       </c>
       <c r="C52">
         <v>29.51</v>
       </c>
       <c r="D52">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <v>0.03</v>
@@ -1725,27 +1725,27 @@
         <v>0.02</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H52">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-25 09:01:38</v>
+        <v>2023-09-28 16:49:07</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>24.8</v>
       </c>
       <c r="C53">
         <v>29.51</v>
       </c>
       <c r="D53">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E53">
         <v>0.03</v>
@@ -1754,27 +1754,27 @@
         <v>0.02</v>
       </c>
       <c r="G53">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H53">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I53">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-25 14:12:38</v>
+        <v>2023-09-28 20:25:56</v>
       </c>
       <c r="B54">
-        <v>24</v>
+        <v>24.9</v>
       </c>
       <c r="C54">
         <v>29.51</v>
       </c>
       <c r="D54">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <v>0.03</v>
@@ -1783,27 +1783,27 @@
         <v>0.02</v>
       </c>
       <c r="G54">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H54">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="I54">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-25 19:22:52</v>
+        <v>2023-09-29 00:00:56</v>
       </c>
       <c r="B55">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="C55">
         <v>29.51</v>
       </c>
       <c r="D55">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>0.03</v>
@@ -1812,27 +1812,27 @@
         <v>0.02</v>
       </c>
       <c r="G55">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H55">
-        <v>22.2</v>
+        <v>19.1</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 00:32:09</v>
+        <v>2023-09-29 03:38:56</v>
       </c>
       <c r="B56">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C56">
-        <v>29.51</v>
+        <v>31.46</v>
       </c>
       <c r="D56">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <v>0.03</v>
@@ -1841,27 +1841,27 @@
         <v>0.02</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H56">
-        <v>22.2</v>
+        <v>19.2</v>
       </c>
       <c r="I56">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-26 05:43:23</v>
+        <v>2023-09-29 07:17:49</v>
       </c>
       <c r="B57">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C57">
-        <v>30.09</v>
+        <v>31.46</v>
       </c>
       <c r="D57">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E57">
         <v>0.03</v>
@@ -1870,24 +1870,24 @@
         <v>0.02</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H57">
-        <v>22.2</v>
+        <v>19.2</v>
       </c>
       <c r="I57">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-26 10:51:44</v>
+        <v>2023-09-29 11:00:17</v>
       </c>
       <c r="B58">
-        <v>24.8</v>
+        <v>24</v>
       </c>
       <c r="C58">
-        <v>30.09</v>
+        <v>31.46</v>
       </c>
       <c r="D58">
         <v>56</v>
@@ -1899,27 +1899,27 @@
         <v>0.02</v>
       </c>
       <c r="G58">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H58">
-        <v>22.2</v>
+        <v>19.2</v>
       </c>
       <c r="I58">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-26 16:02:04</v>
+        <v>2023-09-29 14:39:36</v>
       </c>
       <c r="B59">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C59">
-        <v>30.09</v>
+        <v>31.46</v>
       </c>
       <c r="D59">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E59">
         <v>0.03</v>
@@ -1928,24 +1928,24 @@
         <v>0.02</v>
       </c>
       <c r="G59">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H59">
-        <v>22.2</v>
+        <v>19.39</v>
       </c>
       <c r="I59">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-26 21:11:40</v>
+        <v>2023-09-29 18:21:21</v>
       </c>
       <c r="B60">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C60">
-        <v>30.09</v>
+        <v>31.46</v>
       </c>
       <c r="D60">
         <v>58</v>
@@ -1957,27 +1957,27 @@
         <v>0.02</v>
       </c>
       <c r="G60">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H60">
-        <v>22.2</v>
+        <v>20</v>
       </c>
       <c r="I60">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-27 02:22:27</v>
+        <v>2023-09-29 21:59:24</v>
       </c>
       <c r="B61">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C61">
-        <v>29.64</v>
+        <v>31.46</v>
       </c>
       <c r="D61">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E61">
         <v>0.03</v>
@@ -1986,27 +1986,27 @@
         <v>0.02</v>
       </c>
       <c r="G61">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61">
-        <v>22.3</v>
+        <v>20</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-27 07:32:10</v>
+        <v>2023-09-30 01:41:58</v>
       </c>
       <c r="B62">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C62">
-        <v>29.64</v>
+        <v>31.46</v>
       </c>
       <c r="D62">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E62">
         <v>0.03</v>
@@ -2015,140 +2015,140 @@
         <v>0.02</v>
       </c>
       <c r="G62">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H62">
-        <v>22.3</v>
+        <v>19.6</v>
       </c>
       <c r="I62">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-27 11:37:53</v>
+        <v>2023-09-30 05:20:03</v>
       </c>
       <c r="B63">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C63">
-        <v>29.64</v>
+        <v>31.98</v>
       </c>
       <c r="D63">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F63">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G63">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H63">
-        <v>22.3</v>
+        <v>19.6</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-27 15:17:29</v>
+        <v>2023-09-30 08:50:32</v>
       </c>
       <c r="B64">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="C64">
-        <v>29.64</v>
+        <v>31.98</v>
       </c>
       <c r="D64">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E64">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F64">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G64">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H64">
-        <v>22.3</v>
+        <v>19.6</v>
       </c>
       <c r="I64">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-27 18:54:38</v>
+        <v>2023-09-30 08:58:08</v>
       </c>
       <c r="B65">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="C65">
-        <v>29.64</v>
+        <v>31.98</v>
       </c>
       <c r="D65">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F65">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G65">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H65">
-        <v>22.3</v>
+        <v>19.6</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-27 22:30:09</v>
+        <v>2023-09-30 12:33:29</v>
       </c>
       <c r="B66">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="C66">
-        <v>29.64</v>
+        <v>31.98</v>
       </c>
       <c r="D66">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E66">
         <v>0.03</v>
       </c>
       <c r="F66">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G66">
         <v>22</v>
       </c>
       <c r="H66">
-        <v>22.3</v>
+        <v>19.6</v>
       </c>
       <c r="I66">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-28 02:09:33</v>
+        <v>2023-09-30 16:12:45</v>
       </c>
       <c r="B67">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="C67">
-        <v>29.51</v>
+        <v>31.98</v>
       </c>
       <c r="D67">
         <v>58</v>
@@ -2157,88 +2157,88 @@
         <v>0.03</v>
       </c>
       <c r="F67">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G67">
         <v>22</v>
       </c>
       <c r="H67">
-        <v>22.3</v>
+        <v>20</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-28 05:47:53</v>
+        <v>2023-09-30 19:51:10</v>
       </c>
       <c r="B68">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="C68">
-        <v>29.51</v>
+        <v>31.98</v>
       </c>
       <c r="D68">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E68">
         <v>0.03</v>
       </c>
       <c r="F68">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G68">
         <v>22</v>
       </c>
       <c r="H68">
-        <v>22.3</v>
+        <v>20</v>
       </c>
       <c r="I68">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-28 09:29:05</v>
+        <v>2023-09-30 23:33:57</v>
       </c>
       <c r="B69">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C69">
-        <v>29.51</v>
+        <v>31.98</v>
       </c>
       <c r="D69">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E69">
         <v>0.03</v>
       </c>
       <c r="F69">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G69">
         <v>22</v>
       </c>
       <c r="H69">
-        <v>22.3</v>
+        <v>18</v>
       </c>
       <c r="I69">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-28 13:09:01</v>
+        <v>2023-10-01 03:13:20</v>
       </c>
       <c r="B70">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C70">
-        <v>29.51</v>
+        <v>33.86</v>
       </c>
       <c r="D70">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E70">
         <v>0.03</v>
@@ -2250,24 +2250,24 @@
         <v>22</v>
       </c>
       <c r="H70">
-        <v>22.3</v>
+        <v>19.1</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-28 16:49:07</v>
+        <v>2023-10-01 06:52:44</v>
       </c>
       <c r="B71">
-        <v>24.8</v>
+        <v>23.9</v>
       </c>
       <c r="C71">
-        <v>29.51</v>
+        <v>33.86</v>
       </c>
       <c r="D71">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E71">
         <v>0.03</v>
@@ -2276,27 +2276,27 @@
         <v>0.02</v>
       </c>
       <c r="G71">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H71">
-        <v>22.3</v>
+        <v>19.1</v>
       </c>
       <c r="I71">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-28 20:25:56</v>
+        <v>2023-10-01 10:28:41</v>
       </c>
       <c r="B72">
-        <v>24.9</v>
+        <v>23.9</v>
       </c>
       <c r="C72">
-        <v>29.51</v>
+        <v>33.86</v>
       </c>
       <c r="D72">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E72">
         <v>0.03</v>
@@ -2305,10 +2305,10 @@
         <v>0.02</v>
       </c>
       <c r="G72">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H72">
-        <v>22.3</v>
+        <v>19.5</v>
       </c>
       <c r="I72">
         <v>4</v>
@@ -2316,16 +2316,16 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-29 00:00:56</v>
+        <v>2023-10-01 14:05:12</v>
       </c>
       <c r="B73">
-        <v>24.9</v>
+        <v>23.8</v>
       </c>
       <c r="C73">
-        <v>29.51</v>
+        <v>33.86</v>
       </c>
       <c r="D73">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E73">
         <v>0.03</v>
@@ -2334,27 +2334,27 @@
         <v>0.02</v>
       </c>
       <c r="G73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H73">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-29 03:38:56</v>
+        <v>2023-10-01 17:43:16</v>
       </c>
       <c r="B74">
-        <v>24.9</v>
+        <v>23.8</v>
       </c>
       <c r="C74">
-        <v>31.46</v>
+        <v>33.86</v>
       </c>
       <c r="D74">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E74">
         <v>0.03</v>
@@ -2363,27 +2363,27 @@
         <v>0.02</v>
       </c>
       <c r="G74">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H74">
-        <v>19.2</v>
+        <v>19.8</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-29 07:17:49</v>
+        <v>2023-10-01 21:21:11</v>
       </c>
       <c r="B75">
-        <v>24.9</v>
+        <v>23.8</v>
       </c>
       <c r="C75">
-        <v>31.46</v>
+        <v>33.86</v>
       </c>
       <c r="D75">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E75">
         <v>0.03</v>
@@ -2392,27 +2392,27 @@
         <v>0.02</v>
       </c>
       <c r="G75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75">
-        <v>19.2</v>
+        <v>19.89</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-29 11:00:17</v>
+        <v>2023-10-02 00:55:35</v>
       </c>
       <c r="B76">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="C76">
-        <v>31.46</v>
+        <v>33.86</v>
       </c>
       <c r="D76">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E76">
         <v>0.03</v>
@@ -2421,27 +2421,27 @@
         <v>0.02</v>
       </c>
       <c r="G76">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H76">
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-29 14:39:36</v>
+        <v>2023-10-02 01:02:45</v>
       </c>
       <c r="B77">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C77">
-        <v>31.46</v>
+        <v>33.86</v>
       </c>
       <c r="D77">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77">
         <v>0.03</v>
@@ -2450,24 +2450,24 @@
         <v>0.02</v>
       </c>
       <c r="G77">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H77">
-        <v>19.39</v>
+        <v>20</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-29 18:21:21</v>
+        <v>2023-10-02 04:42:57</v>
       </c>
       <c r="B78">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C78">
-        <v>31.46</v>
+        <v>31.14</v>
       </c>
       <c r="D78">
         <v>58</v>
@@ -2479,27 +2479,27 @@
         <v>0.02</v>
       </c>
       <c r="G78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H78">
         <v>20</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-29 21:59:24</v>
+        <v>2023-10-02 08:24:13</v>
       </c>
       <c r="B79">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="C79">
-        <v>31.46</v>
+        <v>31.14</v>
       </c>
       <c r="D79">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E79">
         <v>0.03</v>
@@ -2514,18 +2514,18 @@
         <v>20</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-30 01:41:58</v>
+        <v>2023-10-02 12:01:39</v>
       </c>
       <c r="B80">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="C80">
-        <v>31.46</v>
+        <v>31.14</v>
       </c>
       <c r="D80">
         <v>58</v>
@@ -2537,24 +2537,24 @@
         <v>0.02</v>
       </c>
       <c r="G80">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H80">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-30 05:20:03</v>
+        <v>2023-10-02 15:37:22</v>
       </c>
       <c r="B81">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C81">
-        <v>31.98</v>
+        <v>31.14</v>
       </c>
       <c r="D81">
         <v>57</v>
@@ -2566,24 +2566,24 @@
         <v>0.02</v>
       </c>
       <c r="G81">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H81">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-30 08:50:32</v>
+        <v>2023-10-02 15:41:41</v>
       </c>
       <c r="B82">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C82">
-        <v>31.98</v>
+        <v>31.14</v>
       </c>
       <c r="D82">
         <v>57</v>
@@ -2595,27 +2595,27 @@
         <v>0.02</v>
       </c>
       <c r="G82">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H82">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="I82">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-30 08:58:08</v>
+        <v>2023-10-02 19:15:55</v>
       </c>
       <c r="B83">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="C83">
-        <v>31.98</v>
+        <v>31.14</v>
       </c>
       <c r="D83">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E83">
         <v>0.03</v>
@@ -2624,27 +2624,27 @@
         <v>0.02</v>
       </c>
       <c r="G83">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H83">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-30 12:33:29</v>
+        <v>2023-10-02 19:20:37</v>
       </c>
       <c r="B84">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="C84">
-        <v>31.98</v>
+        <v>31.14</v>
       </c>
       <c r="D84">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E84">
         <v>0.03</v>
@@ -2653,27 +2653,27 @@
         <v>0.02</v>
       </c>
       <c r="G84">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H84">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="I84">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-30 16:12:45</v>
+        <v>2023-10-02 22:51:12</v>
       </c>
       <c r="B85">
-        <v>23.7</v>
+        <v>23.3</v>
       </c>
       <c r="C85">
-        <v>31.98</v>
+        <v>31.14</v>
       </c>
       <c r="D85">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E85">
         <v>0.03</v>
@@ -2682,27 +2682,27 @@
         <v>0.02</v>
       </c>
       <c r="G85">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H85">
-        <v>20</v>
+        <v>20.39</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-30 19:51:10</v>
+        <v>2023-10-03 02:24:55</v>
       </c>
       <c r="B86">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="C86">
-        <v>31.98</v>
+        <v>33.22</v>
       </c>
       <c r="D86">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E86">
         <v>0.03</v>
@@ -2711,27 +2711,27 @@
         <v>0.02</v>
       </c>
       <c r="G86">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H86">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-30 23:33:57</v>
+        <v>2023-10-03 06:04:06</v>
       </c>
       <c r="B87">
-        <v>23.9</v>
+        <v>23.1</v>
       </c>
       <c r="C87">
-        <v>31.98</v>
+        <v>33.22</v>
       </c>
       <c r="D87">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E87">
         <v>0.03</v>
@@ -2740,27 +2740,27 @@
         <v>0.02</v>
       </c>
       <c r="G87">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H87">
-        <v>18</v>
+        <v>20.5</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-01 03:13:20</v>
+        <v>2023-10-03 09:43:14</v>
       </c>
       <c r="B88">
-        <v>23.9</v>
+        <v>23.1</v>
       </c>
       <c r="C88">
-        <v>33.86</v>
+        <v>33.22</v>
       </c>
       <c r="D88">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E88">
         <v>0.03</v>
@@ -2769,27 +2769,27 @@
         <v>0.02</v>
       </c>
       <c r="G88">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H88">
-        <v>19.1</v>
+        <v>20.5</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-01 06:52:44</v>
+        <v>2023-10-03 13:24:35</v>
       </c>
       <c r="B89">
-        <v>23.9</v>
+        <v>23.4</v>
       </c>
       <c r="C89">
-        <v>33.86</v>
+        <v>33.22</v>
       </c>
       <c r="D89">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E89">
         <v>0.03</v>
@@ -2798,27 +2798,27 @@
         <v>0.02</v>
       </c>
       <c r="G89">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H89">
-        <v>19.1</v>
+        <v>20.5</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-01 10:28:41</v>
+        <v>2023-10-03 17:05:00</v>
       </c>
       <c r="B90">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="C90">
-        <v>33.86</v>
+        <v>33.22</v>
       </c>
       <c r="D90">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E90">
         <v>0.03</v>
@@ -2827,27 +2827,27 @@
         <v>0.02</v>
       </c>
       <c r="G90">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H90">
-        <v>19.5</v>
+        <v>20.8</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-01 14:05:12</v>
+        <v>2023-10-03 20:45:09</v>
       </c>
       <c r="B91">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="C91">
-        <v>33.86</v>
+        <v>33.22</v>
       </c>
       <c r="D91">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E91">
         <v>0.03</v>
@@ -2856,27 +2856,27 @@
         <v>0.02</v>
       </c>
       <c r="G91">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H91">
-        <v>19.5</v>
+        <v>20.9</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-01 17:43:16</v>
+        <v>2023-10-04 00:22:11</v>
       </c>
       <c r="B92">
-        <v>23.8</v>
+        <v>24.08</v>
       </c>
       <c r="C92">
-        <v>33.86</v>
+        <v>33.22</v>
       </c>
       <c r="D92">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E92">
         <v>0.03</v>
@@ -2885,27 +2885,27 @@
         <v>0.02</v>
       </c>
       <c r="G92">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H92">
-        <v>19.8</v>
+        <v>20.9</v>
       </c>
       <c r="I92">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-01 21:21:11</v>
+        <v>2023-10-04 03:58:09</v>
       </c>
       <c r="B93">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="C93">
-        <v>33.86</v>
+        <v>36.85</v>
       </c>
       <c r="D93">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E93">
         <v>0.03</v>
@@ -2914,27 +2914,27 @@
         <v>0.02</v>
       </c>
       <c r="G93">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H93">
-        <v>19.89</v>
+        <v>20.9</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-02 00:55:35</v>
+        <v>2023-10-04 04:03:52</v>
       </c>
       <c r="B94">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="C94">
-        <v>33.86</v>
+        <v>36.85</v>
       </c>
       <c r="D94">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E94">
         <v>0.03</v>
@@ -2943,27 +2943,27 @@
         <v>0.02</v>
       </c>
       <c r="G94">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H94">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-02 01:02:45</v>
+        <v>2023-10-04 07:44:43</v>
       </c>
       <c r="B95">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="C95">
-        <v>33.86</v>
+        <v>36.85</v>
       </c>
       <c r="D95">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E95">
         <v>0.03</v>
@@ -2972,27 +2972,27 @@
         <v>0.02</v>
       </c>
       <c r="G95">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H95">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-02 04:42:57</v>
+        <v>2023-10-04 11:23:33</v>
       </c>
       <c r="B96">
-        <v>23.8</v>
+        <v>24.8</v>
       </c>
       <c r="C96">
-        <v>31.14</v>
+        <v>36.85</v>
       </c>
       <c r="D96">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E96">
         <v>0.03</v>
@@ -3001,27 +3001,27 @@
         <v>0.02</v>
       </c>
       <c r="G96">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H96">
-        <v>20</v>
+        <v>20.9</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-02 08:24:13</v>
+        <v>2023-10-04 14:58:41</v>
       </c>
       <c r="B97">
-        <v>23.7</v>
+        <v>24.9</v>
       </c>
       <c r="C97">
-        <v>31.14</v>
+        <v>36.85</v>
       </c>
       <c r="D97">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E97">
         <v>0.03</v>
@@ -3033,24 +3033,24 @@
         <v>22</v>
       </c>
       <c r="H97">
-        <v>20</v>
+        <v>20.39</v>
       </c>
       <c r="I97">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-02 12:01:39</v>
+        <v>2023-10-04 15:04:14</v>
       </c>
       <c r="B98">
-        <v>23.7</v>
+        <v>24.9</v>
       </c>
       <c r="C98">
-        <v>31.14</v>
+        <v>36.85</v>
       </c>
       <c r="D98">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E98">
         <v>0.03</v>
@@ -3059,27 +3059,27 @@
         <v>0.02</v>
       </c>
       <c r="G98">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H98">
-        <v>20</v>
+        <v>20.39</v>
       </c>
       <c r="I98">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-02 15:37:22</v>
+        <v>2023-10-04 18:43:32</v>
       </c>
       <c r="B99">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="C99">
-        <v>31.14</v>
+        <v>36.85</v>
       </c>
       <c r="D99">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E99">
         <v>0.03</v>
@@ -3088,27 +3088,27 @@
         <v>0.02</v>
       </c>
       <c r="G99">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H99">
-        <v>20.1</v>
+        <v>20.39</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-02 15:41:41</v>
+        <v>2023-10-04 22:18:05</v>
       </c>
       <c r="B100">
-        <v>23.8</v>
+        <v>25</v>
       </c>
       <c r="C100">
-        <v>31.14</v>
+        <v>36.85</v>
       </c>
       <c r="D100">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E100">
         <v>0.03</v>
@@ -3117,27 +3117,27 @@
         <v>0.02</v>
       </c>
       <c r="G100">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H100">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-02 19:15:55</v>
+        <v>2023-10-05 01:57:04</v>
       </c>
       <c r="B101">
-        <v>23.6</v>
+        <v>25</v>
       </c>
       <c r="C101">
-        <v>31.14</v>
+        <v>36.85</v>
       </c>
       <c r="D101">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E101">
         <v>0.03</v>
@@ -3146,27 +3146,27 @@
         <v>0.02</v>
       </c>
       <c r="G101">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H101">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="I101">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-02 19:20:37</v>
+        <v>2023-10-05 05:37:30</v>
       </c>
       <c r="B102">
-        <v>23.6</v>
+        <v>25</v>
       </c>
       <c r="C102">
-        <v>31.14</v>
+        <v>35.49</v>
       </c>
       <c r="D102">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E102">
         <v>0.03</v>
@@ -3175,27 +3175,27 @@
         <v>0.02</v>
       </c>
       <c r="G102">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H102">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="I102">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-02 22:51:12</v>
+        <v>2023-10-05 09:17:28</v>
       </c>
       <c r="B103">
-        <v>23.3</v>
+        <v>25.9</v>
       </c>
       <c r="C103">
-        <v>31.14</v>
+        <v>35.49</v>
       </c>
       <c r="D103">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E103">
         <v>0.03</v>
@@ -3204,27 +3204,27 @@
         <v>0.02</v>
       </c>
       <c r="G103">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H103">
-        <v>20.39</v>
+        <v>20.6</v>
       </c>
       <c r="I103">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-03 02:24:55</v>
+        <v>2023-10-05 12:52:44</v>
       </c>
       <c r="B104">
-        <v>23.1</v>
+        <v>25.9</v>
       </c>
       <c r="C104">
-        <v>33.22</v>
+        <v>35.49</v>
       </c>
       <c r="D104">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E104">
         <v>0.03</v>
@@ -3233,27 +3233,27 @@
         <v>0.02</v>
       </c>
       <c r="G104">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H104">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="I104">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-03 06:04:06</v>
+        <v>2023-10-05 16:30:25</v>
       </c>
       <c r="B105">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="C105">
-        <v>33.22</v>
+        <v>35.49</v>
       </c>
       <c r="D105">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E105">
         <v>0.03</v>
@@ -3262,27 +3262,27 @@
         <v>0.02</v>
       </c>
       <c r="G105">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H105">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="I105">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-03 09:43:14</v>
+        <v>2023-10-05 16:35:38</v>
       </c>
       <c r="B106">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="C106">
-        <v>33.22</v>
+        <v>35.49</v>
       </c>
       <c r="D106">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E106">
         <v>0.03</v>
@@ -3294,24 +3294,24 @@
         <v>21</v>
       </c>
       <c r="H106">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="I106">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-03 13:24:35</v>
+        <v>2023-10-05 20:15:45</v>
       </c>
       <c r="B107">
-        <v>23.4</v>
+        <v>27.9</v>
       </c>
       <c r="C107">
-        <v>33.22</v>
+        <v>35.49</v>
       </c>
       <c r="D107">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E107">
         <v>0.03</v>
@@ -3323,24 +3323,24 @@
         <v>21</v>
       </c>
       <c r="H107">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="I107">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-03 17:05:00</v>
+        <v>2023-10-05 23:54:53</v>
       </c>
       <c r="B108">
-        <v>23.3</v>
+        <v>27.8</v>
       </c>
       <c r="C108">
-        <v>33.22</v>
+        <v>35.49</v>
       </c>
       <c r="D108">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E108">
         <v>0.03</v>
@@ -3352,24 +3352,24 @@
         <v>21</v>
       </c>
       <c r="H108">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="I108">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-03 20:45:09</v>
+        <v>2023-10-06 05:03:19</v>
       </c>
       <c r="B109">
-        <v>23.4</v>
+        <v>27.9</v>
       </c>
       <c r="C109">
-        <v>33.22</v>
+        <v>36.01</v>
       </c>
       <c r="D109">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E109">
         <v>0.03</v>
@@ -3381,24 +3381,24 @@
         <v>21</v>
       </c>
       <c r="H109">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="I109">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-04 00:22:11</v>
+        <v>2023-10-06 10:13:18</v>
       </c>
       <c r="B110">
-        <v>24.08</v>
+        <v>27.9</v>
       </c>
       <c r="C110">
-        <v>33.22</v>
+        <v>36.01</v>
       </c>
       <c r="D110">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E110">
         <v>0.03</v>
@@ -3410,7 +3410,7 @@
         <v>21</v>
       </c>
       <c r="H110">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="I110">
         <v>7</v>
@@ -3418,16 +3418,16 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-04 03:58:09</v>
+        <v>2023-10-06 15:23:18</v>
       </c>
       <c r="B111">
-        <v>25</v>
+        <v>27.9</v>
       </c>
       <c r="C111">
-        <v>36.85</v>
+        <v>36.01</v>
       </c>
       <c r="D111">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E111">
         <v>0.03</v>
@@ -3439,24 +3439,24 @@
         <v>21</v>
       </c>
       <c r="H111">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="I111">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-04 04:03:52</v>
+        <v>2023-10-06 20:33:18</v>
       </c>
       <c r="B112">
-        <v>25</v>
+        <v>27.9</v>
       </c>
       <c r="C112">
-        <v>36.85</v>
+        <v>36.01</v>
       </c>
       <c r="D112">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E112">
         <v>0.03</v>
@@ -3468,24 +3468,24 @@
         <v>21</v>
       </c>
       <c r="H112">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="I112">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-04 07:44:43</v>
+        <v>2023-10-07 01:43:18</v>
       </c>
       <c r="B113">
-        <v>25</v>
+        <v>27.8</v>
       </c>
       <c r="C113">
-        <v>36.85</v>
+        <v>36.01</v>
       </c>
       <c r="D113">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E113">
         <v>0.03</v>
@@ -3497,24 +3497,24 @@
         <v>21</v>
       </c>
       <c r="H113">
-        <v>20.9</v>
+        <v>21.9</v>
       </c>
       <c r="I113">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-04 11:23:33</v>
+        <v>2023-10-07 06:53:18</v>
       </c>
       <c r="B114">
-        <v>24.8</v>
+        <v>27.8</v>
       </c>
       <c r="C114">
-        <v>36.85</v>
+        <v>37.38</v>
       </c>
       <c r="D114">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E114">
         <v>0.03</v>
@@ -3526,123 +3526,123 @@
         <v>21</v>
       </c>
       <c r="H114">
-        <v>20.9</v>
+        <v>22</v>
       </c>
       <c r="I114">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-04 14:58:41</v>
+        <v>2023-10-07 12:03:32</v>
       </c>
       <c r="B115">
-        <v>24.9</v>
+        <v>27.9</v>
       </c>
       <c r="C115">
-        <v>36.85</v>
+        <v>37.38</v>
       </c>
       <c r="D115">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E115">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F115">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G115">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H115">
-        <v>20.39</v>
+        <v>22.1</v>
       </c>
       <c r="I115">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-04 15:04:14</v>
+        <v>2023-10-07 17:13:26</v>
       </c>
       <c r="B116">
-        <v>24.9</v>
+        <v>27.79</v>
       </c>
       <c r="C116">
-        <v>36.85</v>
+        <v>37.38</v>
       </c>
       <c r="D116">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E116">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F116">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G116">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H116">
-        <v>20.39</v>
+        <v>22.2</v>
       </c>
       <c r="I116">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-04 18:43:32</v>
+        <v>2023-10-07 22:23:26</v>
       </c>
       <c r="B117">
-        <v>25</v>
+        <v>27.79</v>
       </c>
       <c r="C117">
-        <v>36.85</v>
+        <v>37.38</v>
       </c>
       <c r="D117">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E117">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F117">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G117">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H117">
-        <v>20.39</v>
+        <v>22.2</v>
       </c>
       <c r="I117">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-04 22:18:05</v>
+        <v>2023-10-08 03:33:26</v>
       </c>
       <c r="B118">
-        <v>25</v>
+        <v>27.66</v>
       </c>
       <c r="C118">
-        <v>36.85</v>
+        <v>38.28</v>
       </c>
       <c r="D118">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E118">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F118">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G118">
         <v>22</v>
       </c>
       <c r="H118">
-        <v>20.5</v>
+        <v>22.2</v>
       </c>
       <c r="I118">
         <v>7</v>
@@ -3650,45 +3650,45 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-05 01:57:04</v>
+        <v>2023-10-08 08:43:26</v>
       </c>
       <c r="B119">
-        <v>25</v>
+        <v>27.66</v>
       </c>
       <c r="C119">
-        <v>36.85</v>
+        <v>38.28</v>
       </c>
       <c r="D119">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E119">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F119">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G119">
         <v>22</v>
       </c>
       <c r="H119">
-        <v>20.6</v>
+        <v>22.2</v>
       </c>
       <c r="I119">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-05 05:37:30</v>
+        <v>2023-10-08 13:53:24</v>
       </c>
       <c r="B120">
-        <v>25</v>
+        <v>27.66</v>
       </c>
       <c r="C120">
-        <v>35.49</v>
+        <v>38.28</v>
       </c>
       <c r="D120">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E120">
         <v>0.03</v>
@@ -3697,27 +3697,27 @@
         <v>0.02</v>
       </c>
       <c r="G120">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H120">
-        <v>20.6</v>
+        <v>22.3</v>
       </c>
       <c r="I120">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-05 09:17:28</v>
+        <v>2023-10-08 19:03:23</v>
       </c>
       <c r="B121">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="C121">
-        <v>35.49</v>
+        <v>38.28</v>
       </c>
       <c r="D121">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E121">
         <v>0.03</v>
@@ -3726,24 +3726,24 @@
         <v>0.02</v>
       </c>
       <c r="G121">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H121">
-        <v>20.6</v>
+        <v>23</v>
       </c>
       <c r="I121">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-05 12:52:44</v>
+        <v>2023-10-09 00:13:23</v>
       </c>
       <c r="B122">
-        <v>25.9</v>
+        <v>27.49</v>
       </c>
       <c r="C122">
-        <v>35.49</v>
+        <v>38.28</v>
       </c>
       <c r="D122">
         <v>50</v>
@@ -3755,24 +3755,24 @@
         <v>0.02</v>
       </c>
       <c r="G122">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H122">
-        <v>20.6</v>
+        <v>23.1</v>
       </c>
       <c r="I122">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-05 16:30:25</v>
+        <v>2023-10-09 05:23:41</v>
       </c>
       <c r="B123">
-        <v>25</v>
+        <v>27.49</v>
       </c>
       <c r="C123">
-        <v>35.49</v>
+        <v>39.65</v>
       </c>
       <c r="D123">
         <v>50</v>
@@ -3784,24 +3784,24 @@
         <v>0.02</v>
       </c>
       <c r="G123">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H123">
-        <v>20.7</v>
+        <v>23.1</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-05 16:35:38</v>
+        <v>2023-10-09 10:33:29</v>
       </c>
       <c r="B124">
-        <v>25</v>
+        <v>27.58</v>
       </c>
       <c r="C124">
-        <v>35.49</v>
+        <v>39.65</v>
       </c>
       <c r="D124">
         <v>49</v>
@@ -3816,24 +3816,24 @@
         <v>21</v>
       </c>
       <c r="H124">
-        <v>20.7</v>
+        <v>23.1</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-05 20:15:45</v>
+        <v>2023-10-09 15:43:50</v>
       </c>
       <c r="B125">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C125">
-        <v>35.49</v>
+        <v>39.65</v>
       </c>
       <c r="D125">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E125">
         <v>0.03</v>
@@ -3845,24 +3845,24 @@
         <v>21</v>
       </c>
       <c r="H125">
-        <v>21.2</v>
+        <v>23.3</v>
       </c>
       <c r="I125">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-05 23:54:53</v>
+        <v>2023-10-09 20:53:38</v>
       </c>
       <c r="B126">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C126">
-        <v>35.49</v>
+        <v>39.65</v>
       </c>
       <c r="D126">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E126">
         <v>0.03</v>
@@ -3874,24 +3874,24 @@
         <v>21</v>
       </c>
       <c r="H126">
-        <v>21.2</v>
+        <v>23.5</v>
       </c>
       <c r="I126">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-06 05:03:19</v>
+        <v>2023-10-10 02:03:38</v>
       </c>
       <c r="B127">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C127">
-        <v>36.01</v>
+        <v>39.26</v>
       </c>
       <c r="D127">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E127">
         <v>0.03</v>
@@ -3903,24 +3903,24 @@
         <v>21</v>
       </c>
       <c r="H127">
-        <v>21.2</v>
+        <v>23.6</v>
       </c>
       <c r="I127">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-06 10:13:18</v>
+        <v>2023-10-10 07:13:37</v>
       </c>
       <c r="B128">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="C128">
-        <v>36.01</v>
+        <v>39.26</v>
       </c>
       <c r="D128">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E128">
         <v>0.03</v>
@@ -3932,24 +3932,24 @@
         <v>21</v>
       </c>
       <c r="H128">
-        <v>21.3</v>
+        <v>23.6</v>
       </c>
       <c r="I128">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-06 15:23:18</v>
+        <v>2023-10-10 12:23:37</v>
       </c>
       <c r="B129">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C129">
-        <v>36.01</v>
+        <v>39.26</v>
       </c>
       <c r="D129">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E129">
         <v>0.03</v>
@@ -3961,21 +3961,21 @@
         <v>21</v>
       </c>
       <c r="H129">
-        <v>21.3</v>
+        <v>23.7</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-06 20:33:18</v>
+        <v>2023-10-10 17:33:45</v>
       </c>
       <c r="B130">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="C130">
-        <v>36.01</v>
+        <v>39.26</v>
       </c>
       <c r="D130">
         <v>46</v>
@@ -3990,7 +3990,7 @@
         <v>21</v>
       </c>
       <c r="H130">
-        <v>21.4</v>
+        <v>23.8</v>
       </c>
       <c r="I130">
         <v>7</v>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-07 01:43:18</v>
+        <v>2023-10-10 22:43:45</v>
       </c>
       <c r="B131">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="C131">
-        <v>36.01</v>
+        <v>39.26</v>
       </c>
       <c r="D131">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E131">
         <v>0.03</v>
@@ -4016,27 +4016,27 @@
         <v>0.02</v>
       </c>
       <c r="G131">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H131">
-        <v>21.9</v>
+        <v>23.9</v>
       </c>
       <c r="I131">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-07 06:53:18</v>
+        <v>2023-10-11 03:53:45</v>
       </c>
       <c r="B132">
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="C132">
-        <v>37.38</v>
+        <v>39.65</v>
       </c>
       <c r="D132">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E132">
         <v>0.03</v>
@@ -4045,39 +4045,39 @@
         <v>0.02</v>
       </c>
       <c r="G132">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H132">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I132">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-07 12:03:32</v>
+        <v>2023-10-11 09:03:45</v>
       </c>
       <c r="B133">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="C133">
-        <v>37.38</v>
+        <v>39.65</v>
       </c>
       <c r="D133">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E133">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F133">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G133">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H133">
-        <v>22.1</v>
+        <v>24.1</v>
       </c>
       <c r="I133">
         <v>9</v>
@@ -4085,277 +4085,277 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-07 17:13:26</v>
+        <v>2023-10-11 14:13:44</v>
       </c>
       <c r="B134">
-        <v>27.79</v>
+        <v>28.8</v>
       </c>
       <c r="C134">
-        <v>37.38</v>
+        <v>39.65</v>
       </c>
       <c r="D134">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E134">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F134">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G134">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H134">
-        <v>22.2</v>
+        <v>24.1</v>
       </c>
       <c r="I134">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-07 22:23:26</v>
+        <v>2023-10-11 19:23:44</v>
       </c>
       <c r="B135">
-        <v>27.79</v>
+        <v>28.5</v>
       </c>
       <c r="C135">
-        <v>37.38</v>
+        <v>39.65</v>
       </c>
       <c r="D135">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E135">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F135">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G135">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H135">
-        <v>22.2</v>
+        <v>24.3</v>
       </c>
       <c r="I135">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-08 03:33:26</v>
+        <v>2023-10-12 00:33:45</v>
       </c>
       <c r="B136">
-        <v>27.66</v>
+        <v>28.5</v>
       </c>
       <c r="C136">
-        <v>38.28</v>
+        <v>39.65</v>
       </c>
       <c r="D136">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E136">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F136">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G136">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H136">
-        <v>22.2</v>
+        <v>25</v>
       </c>
       <c r="I136">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-08 08:43:26</v>
+        <v>2023-10-12 05:36:51</v>
       </c>
       <c r="B137">
-        <v>27.66</v>
+        <v>28.5</v>
       </c>
       <c r="C137">
-        <v>38.28</v>
+        <v>40.56</v>
       </c>
       <c r="D137">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E137">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F137">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G137">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H137">
-        <v>22.2</v>
+        <v>25</v>
       </c>
       <c r="I137">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-08 13:53:24</v>
+        <v>2023-10-12 10:46:51</v>
       </c>
       <c r="B138">
-        <v>27.66</v>
+        <v>28.5</v>
       </c>
       <c r="C138">
-        <v>38.28</v>
+        <v>40.56</v>
       </c>
       <c r="D138">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E138">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F138">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G138">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H138">
-        <v>22.3</v>
+        <v>25</v>
       </c>
       <c r="I138">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-08 19:03:23</v>
+        <v>2023-10-12 15:56:50</v>
       </c>
       <c r="B139">
-        <v>27</v>
+        <v>28.5</v>
       </c>
       <c r="C139">
-        <v>38.28</v>
+        <v>40.56</v>
       </c>
       <c r="D139">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E139">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F139">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G139">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H139">
-        <v>23</v>
+        <v>25.1</v>
       </c>
       <c r="I139">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-09 00:13:23</v>
+        <v>2023-10-12 21:06:55</v>
       </c>
       <c r="B140">
-        <v>27.49</v>
+        <v>28.5</v>
       </c>
       <c r="C140">
-        <v>38.28</v>
+        <v>40.56</v>
       </c>
       <c r="D140">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E140">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F140">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G140">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H140">
-        <v>23.1</v>
+        <v>25.5</v>
       </c>
       <c r="I140">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-09 05:23:41</v>
+        <v>2023-10-13 02:16:55</v>
       </c>
       <c r="B141">
-        <v>27.49</v>
+        <v>28.6</v>
       </c>
       <c r="C141">
-        <v>39.65</v>
+        <v>44.2</v>
       </c>
       <c r="D141">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E141">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F141">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G141">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H141">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="I141">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-09 10:33:29</v>
+        <v>2023-10-13 07:26:55</v>
       </c>
       <c r="B142">
-        <v>27.58</v>
+        <v>28.6</v>
       </c>
       <c r="C142">
-        <v>39.65</v>
+        <v>44.2</v>
       </c>
       <c r="D142">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E142">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F142">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G142">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H142">
-        <v>23.1</v>
+        <v>25.6</v>
       </c>
       <c r="I142">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-09 15:43:50</v>
+        <v>2023-10-13 12:37:26</v>
       </c>
       <c r="B143">
-        <v>27.8</v>
+        <v>28.6</v>
       </c>
       <c r="C143">
-        <v>39.65</v>
+        <v>44.2</v>
       </c>
       <c r="D143">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E143">
         <v>0.03</v>
@@ -4367,24 +4367,24 @@
         <v>21</v>
       </c>
       <c r="H143">
-        <v>23.3</v>
+        <v>26</v>
       </c>
       <c r="I143">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-09 20:53:38</v>
+        <v>2023-10-13 17:47:13</v>
       </c>
       <c r="B144">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="C144">
-        <v>39.65</v>
+        <v>44.2</v>
       </c>
       <c r="D144">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E144">
         <v>0.03</v>
@@ -4393,27 +4393,27 @@
         <v>0.02</v>
       </c>
       <c r="G144">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H144">
-        <v>23.5</v>
+        <v>27.1</v>
       </c>
       <c r="I144">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-10 02:03:38</v>
+        <v>2023-10-13 22:58:41</v>
       </c>
       <c r="B145">
-        <v>27.7</v>
+        <v>28.8</v>
       </c>
       <c r="C145">
-        <v>39.26</v>
+        <v>44.2</v>
       </c>
       <c r="D145">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E145">
         <v>0.03</v>
@@ -4422,27 +4422,27 @@
         <v>0.02</v>
       </c>
       <c r="G145">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H145">
-        <v>23.6</v>
+        <v>27.5</v>
       </c>
       <c r="I145">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-10 07:13:37</v>
+        <v>2023-10-14 04:07:13</v>
       </c>
       <c r="B146">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="C146">
-        <v>39.26</v>
+        <v>41.41</v>
       </c>
       <c r="D146">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E146">
         <v>0.03</v>
@@ -4451,27 +4451,27 @@
         <v>0.02</v>
       </c>
       <c r="G146">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H146">
-        <v>23.6</v>
+        <v>27.5</v>
       </c>
       <c r="I146">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-10 12:23:37</v>
+        <v>2023-10-14 09:17:13</v>
       </c>
       <c r="B147">
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="C147">
-        <v>39.26</v>
+        <v>41.41</v>
       </c>
       <c r="D147">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E147">
         <v>0.03</v>
@@ -4480,143 +4480,143 @@
         <v>0.02</v>
       </c>
       <c r="G147">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H147">
-        <v>23.7</v>
+        <v>27.5</v>
       </c>
       <c r="I147">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-10 17:33:45</v>
+        <v>2023-10-14 14:28:30</v>
       </c>
       <c r="B148">
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="C148">
-        <v>39.26</v>
+        <v>41.41</v>
       </c>
       <c r="D148">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E148">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F148">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G148">
         <v>21</v>
       </c>
       <c r="H148">
-        <v>23.8</v>
+        <v>27.5</v>
       </c>
       <c r="I148">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-10 22:43:45</v>
+        <v>2023-10-14 19:37:21</v>
       </c>
       <c r="B149">
-        <v>28.6</v>
+        <v>28.79</v>
       </c>
       <c r="C149">
-        <v>39.26</v>
+        <v>41.41</v>
       </c>
       <c r="D149">
         <v>41</v>
       </c>
       <c r="E149">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F149">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G149">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H149">
-        <v>23.9</v>
+        <v>27.5</v>
       </c>
       <c r="I149">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-11 03:53:45</v>
+        <v>2023-10-15 00:47:21</v>
       </c>
       <c r="B150">
-        <v>28.8</v>
+        <v>28.79</v>
       </c>
       <c r="C150">
-        <v>39.65</v>
+        <v>41.41</v>
       </c>
       <c r="D150">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E150">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F150">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G150">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H150">
-        <v>24</v>
+        <v>27.5</v>
       </c>
       <c r="I150">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-11 09:03:45</v>
+        <v>2023-10-15 05:57:21</v>
       </c>
       <c r="B151">
-        <v>28.8</v>
+        <v>28.79</v>
       </c>
       <c r="C151">
-        <v>39.65</v>
+        <v>42.05</v>
       </c>
       <c r="D151">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E151">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F151">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G151">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H151">
-        <v>24.1</v>
+        <v>27.5</v>
       </c>
       <c r="I151">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-11 14:13:44</v>
+        <v>2023-10-15 11:07:21</v>
       </c>
       <c r="B152">
-        <v>28.8</v>
+        <v>28.79</v>
       </c>
       <c r="C152">
-        <v>39.65</v>
+        <v>42.05</v>
       </c>
       <c r="D152">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E152">
         <v>0.04</v>
@@ -4625,24 +4625,24 @@
         <v>0.03</v>
       </c>
       <c r="G152">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H152">
-        <v>24.1</v>
+        <v>27.5</v>
       </c>
       <c r="I152">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-11 19:23:44</v>
+        <v>2023-10-15 16:17:21</v>
       </c>
       <c r="B153">
-        <v>28.5</v>
+        <v>28.78</v>
       </c>
       <c r="C153">
-        <v>39.65</v>
+        <v>42.05</v>
       </c>
       <c r="D153">
         <v>44</v>
@@ -4654,10 +4654,10 @@
         <v>0.03</v>
       </c>
       <c r="G153">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H153">
-        <v>24.3</v>
+        <v>27.1</v>
       </c>
       <c r="I153">
         <v>10</v>
@@ -4665,16 +4665,16 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-12 00:33:45</v>
+        <v>2023-10-15 21:27:21</v>
       </c>
       <c r="B154">
-        <v>28.5</v>
+        <v>28.79</v>
       </c>
       <c r="C154">
-        <v>39.65</v>
+        <v>42.05</v>
       </c>
       <c r="D154">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E154">
         <v>0.04</v>
@@ -4683,24 +4683,24 @@
         <v>0.03</v>
       </c>
       <c r="G154">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H154">
-        <v>25</v>
+        <v>27.2</v>
       </c>
       <c r="I154">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-12 05:36:51</v>
+        <v>2023-10-16 02:37:21</v>
       </c>
       <c r="B155">
-        <v>28.5</v>
+        <v>28.79</v>
       </c>
       <c r="C155">
-        <v>40.56</v>
+        <v>43.62</v>
       </c>
       <c r="D155">
         <v>43</v>
@@ -4712,27 +4712,27 @@
         <v>0.03</v>
       </c>
       <c r="G155">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H155">
-        <v>25</v>
+        <v>27.2</v>
       </c>
       <c r="I155">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-12 10:46:51</v>
+        <v>2023-10-16 07:47:21</v>
       </c>
       <c r="B156">
-        <v>28.5</v>
+        <v>28.79</v>
       </c>
       <c r="C156">
-        <v>40.56</v>
+        <v>43.62</v>
       </c>
       <c r="D156">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E156">
         <v>0.04</v>
@@ -4741,27 +4741,27 @@
         <v>0.03</v>
       </c>
       <c r="G156">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H156">
-        <v>25</v>
+        <v>27.2</v>
       </c>
       <c r="I156">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-12 15:56:50</v>
+        <v>2023-10-16 12:57:21</v>
       </c>
       <c r="B157">
-        <v>28.5</v>
+        <v>28.79</v>
       </c>
       <c r="C157">
-        <v>40.56</v>
+        <v>43.62</v>
       </c>
       <c r="D157">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E157">
         <v>0.04</v>
@@ -4770,27 +4770,27 @@
         <v>0.03</v>
       </c>
       <c r="G157">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H157">
-        <v>25.1</v>
+        <v>27.2</v>
       </c>
       <c r="I157">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-12 21:06:55</v>
+        <v>2023-10-16 16:35:05</v>
       </c>
       <c r="B158">
-        <v>28.5</v>
+        <v>28.79</v>
       </c>
       <c r="C158">
-        <v>40.56</v>
+        <v>43.62</v>
       </c>
       <c r="D158">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E158">
         <v>0.04</v>
@@ -4799,27 +4799,27 @@
         <v>0.03</v>
       </c>
       <c r="G158">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H158">
-        <v>25.5</v>
+        <v>26.3</v>
       </c>
       <c r="I158">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-13 02:16:55</v>
+        <v>2023-10-16 20:15:54</v>
       </c>
       <c r="B159">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="C159">
-        <v>44.2</v>
+        <v>43.62</v>
       </c>
       <c r="D159">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E159">
         <v>0.04</v>
@@ -4828,27 +4828,27 @@
         <v>0.03</v>
       </c>
       <c r="G159">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H159">
-        <v>25.6</v>
+        <v>26.3</v>
       </c>
       <c r="I159">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-13 07:26:55</v>
+        <v>2023-10-16 23:54:01</v>
       </c>
       <c r="B160">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="C160">
-        <v>44.2</v>
+        <v>43.62</v>
       </c>
       <c r="D160">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E160">
         <v>0.04</v>
@@ -4860,355 +4860,355 @@
         <v>20</v>
       </c>
       <c r="H160">
-        <v>25.6</v>
+        <v>26.3</v>
       </c>
       <c r="I160">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-13 12:37:26</v>
+        <v>2023-10-17 03:34:25</v>
       </c>
       <c r="B161">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="C161">
-        <v>44.2</v>
+        <v>42.31</v>
       </c>
       <c r="D161">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E161">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F161">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G161">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H161">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="I161">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-13 17:47:13</v>
+        <v>2023-10-17 07:14:23</v>
       </c>
       <c r="B162">
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="C162">
-        <v>44.2</v>
+        <v>42.31</v>
       </c>
       <c r="D162">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E162">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F162">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G162">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H162">
-        <v>27.1</v>
+        <v>26.5</v>
       </c>
       <c r="I162">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-13 22:58:41</v>
+        <v>2023-10-17 10:54:47</v>
       </c>
       <c r="B163">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="C163">
-        <v>44.2</v>
+        <v>42.31</v>
       </c>
       <c r="D163">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E163">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F163">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G163">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H163">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
       <c r="I163">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-14 04:07:13</v>
+        <v>2023-10-17 14:33:45</v>
       </c>
       <c r="B164">
-        <v>27</v>
+        <v>29.8</v>
       </c>
       <c r="C164">
-        <v>41.41</v>
+        <v>42.31</v>
       </c>
       <c r="D164">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E164">
         <v>0.03</v>
       </c>
       <c r="F164">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G164">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H164">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="I164">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-14 09:17:13</v>
+        <v>2023-10-17 18:14:10</v>
       </c>
       <c r="B165">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="C165">
-        <v>41.41</v>
+        <v>42.31</v>
       </c>
       <c r="D165">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E165">
         <v>0.03</v>
       </c>
       <c r="F165">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G165">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H165">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="I165">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-14 14:28:30</v>
+        <v>2023-10-17 21:53:53</v>
       </c>
       <c r="B166">
-        <v>28.8</v>
+        <v>29.7</v>
       </c>
       <c r="C166">
-        <v>41.41</v>
+        <v>42.31</v>
       </c>
       <c r="D166">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E166">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F166">
         <v>0.03</v>
       </c>
       <c r="G166">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H166">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="I166">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-14 19:37:21</v>
+        <v>2023-10-18 01:34:05</v>
       </c>
       <c r="B167">
-        <v>28.79</v>
+        <v>29.7</v>
       </c>
       <c r="C167">
-        <v>41.41</v>
+        <v>42.31</v>
       </c>
       <c r="D167">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E167">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F167">
         <v>0.03</v>
       </c>
       <c r="G167">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H167">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="I167">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-15 00:47:21</v>
+        <v>2023-10-18 05:14:15</v>
       </c>
       <c r="B168">
-        <v>28.79</v>
+        <v>29.8</v>
       </c>
       <c r="C168">
-        <v>41.41</v>
+        <v>42.25</v>
       </c>
       <c r="D168">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E168">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F168">
         <v>0.03</v>
       </c>
       <c r="G168">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H168">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="I168">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-15 05:57:21</v>
+        <v>2023-10-18 08:55:49</v>
       </c>
       <c r="B169">
-        <v>28.79</v>
+        <v>29.9</v>
       </c>
       <c r="C169">
-        <v>42.05</v>
+        <v>42.25</v>
       </c>
       <c r="D169">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E169">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F169">
         <v>0.03</v>
       </c>
       <c r="G169">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H169">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="I169">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-15 11:07:21</v>
+        <v>2023-10-18 12:34:41</v>
       </c>
       <c r="B170">
-        <v>28.79</v>
+        <v>30</v>
       </c>
       <c r="C170">
-        <v>42.05</v>
+        <v>42.25</v>
       </c>
       <c r="D170">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E170">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F170">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G170">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H170">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="I170">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-15 16:17:21</v>
+        <v>2023-10-18 16:11:27</v>
       </c>
       <c r="B171">
-        <v>28.78</v>
+        <v>30</v>
       </c>
       <c r="C171">
-        <v>42.05</v>
+        <v>42.25</v>
       </c>
       <c r="D171">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E171">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F171">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G171">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H171">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="I171">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-15 21:27:21</v>
+        <v>2023-10-18 19:46:25</v>
       </c>
       <c r="B172">
-        <v>28.79</v>
+        <v>30</v>
       </c>
       <c r="C172">
-        <v>42.05</v>
+        <v>42.25</v>
       </c>
       <c r="D172">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E172">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F172">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G172">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H172">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="I172">
         <v>10</v>
@@ -5216,60 +5216,89 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-16 02:37:21</v>
+        <v>2023-10-18 23:25:21</v>
       </c>
       <c r="B173">
-        <v>28.79</v>
+        <v>30</v>
       </c>
       <c r="C173">
-        <v>43.62</v>
+        <v>42.25</v>
       </c>
       <c r="D173">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E173">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F173">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G173">
         <v>21</v>
       </c>
       <c r="H173">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="I173">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-16 07:47:21</v>
+        <v>2023-10-19 03:04:43</v>
       </c>
       <c r="B174">
-        <v>28.79</v>
+        <v>30</v>
       </c>
       <c r="C174">
-        <v>43.62</v>
+        <v>44.4</v>
       </c>
       <c r="D174">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E174">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F174">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G174">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H174">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="I174">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>2023-10-19 06:45:39</v>
+      </c>
+      <c r="B175">
+        <v>29.9</v>
+      </c>
+      <c r="C175">
+        <v>44.4</v>
+      </c>
+      <c r="D175">
+        <v>49</v>
+      </c>
+      <c r="E175">
+        <v>0.02</v>
+      </c>
+      <c r="F175">
+        <v>0.01</v>
+      </c>
+      <c r="G175">
+        <v>22</v>
+      </c>
+      <c r="H175">
+        <v>26.9</v>
+      </c>
+      <c r="I175">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5281,7 +5310,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I174"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I175"/>
   </ignoredErrors>
 </worksheet>
 </file>